--- a/Project_automation/src/main/resources/testdata.xlsx
+++ b/Project_automation/src/main/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="12705" windowHeight="6825" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="12705" windowHeight="6825" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>username</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>das12@gmail.com</t>
+  </si>
+  <si>
+    <t>user123</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,6 +580,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -698,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -947,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
